--- a/DATA_goal/Junction_Flooding_69.xlsx
+++ b/DATA_goal/Junction_Flooding_69.xlsx
@@ -444,37 +444,37 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,103 +655,103 @@
         <v>41501.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.56</v>
+        <v>1.46</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.75</v>
+        <v>0.67</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>78.41</v>
+        <v>7.84</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.29</v>
+        <v>0.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41501.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.28</v>
+        <v>2.33</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.66</v>
+        <v>1.77</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="N3" s="4" t="n">
         <v>0.59</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>51.17</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>41.87</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>67.26000000000001</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>28.45</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>19.09</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>20.69</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>21.95</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>5.89</v>
-      </c>
       <c r="O3" s="4" t="n">
-        <v>18.55</v>
+        <v>1.85</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.08</v>
+        <v>2.61</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>275.37</v>
+        <v>27.54</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>51.86</v>
+        <v>5.19</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.12</v>
+        <v>1.71</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>34.58</v>
+        <v>3.46</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.84</v>
+        <v>1.88</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>34.15</v>
+        <v>3.41</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.94</v>
+        <v>1.39</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>22.22</v>
+        <v>2.22</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>60.98</v>
+        <v>6.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.08</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41501.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.15</v>
+        <v>0.52</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.64</v>
+        <v>1.16</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>22.87</v>
+        <v>2.29</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.77</v>
+        <v>0.48</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="Z4" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AB4" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>57.97</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>3.56</v>
-      </c>
       <c r="AC4" s="4" t="n">
-        <v>4.28</v>
+        <v>0.43</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.3</v>
+        <v>0.53</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.17</v>
+        <v>2.12</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41501.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.64</v>
+        <v>1.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30.95</v>
+        <v>3.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.31</v>
+        <v>2.53</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.85</v>
+        <v>1.08</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.84</v>
+        <v>4.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.51</v>
+        <v>1.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.18</v>
+        <v>1.12</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>163.19</v>
+        <v>16.32</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.24</v>
+        <v>3.12</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.32</v>
+        <v>1.03</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.86</v>
+        <v>2.09</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.65</v>
+        <v>2.07</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.41</v>
+        <v>0.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>37.65</v>
+        <v>3.76</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41501.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>7.55</v>
+        <v>0.76</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>22</v>
+        <v>2.2</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>32.73</v>
+        <v>3.27</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>12.21</v>
+        <v>1.22</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>8.17</v>
+        <v>0.82</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>9.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7.95</v>
+        <v>0.79</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="T6" s="4" t="n">
-        <v>114</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>22.35</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>29.75</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.33</v>
-      </c>
       <c r="AH6" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41501.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>18.28</v>
+        <v>1.83</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>4.62</v>
+        <v>0.46</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>52.21</v>
+        <v>5.22</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>11.08</v>
+        <v>1.11</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>3.15</v>
+        <v>0.31</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="AE7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AG7" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="AF7" s="4" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>2.17</v>
-      </c>
       <c r="AH7" s="4" t="n">
-        <v>4.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41501.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N8" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>28.29</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>2.43</v>
-      </c>
       <c r="O8" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>108.24</v>
+        <v>10.82</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>21.16</v>
+        <v>2.12</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>14.15</v>
+        <v>1.41</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>25.44</v>
+        <v>2.54</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41501.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>7.26</v>
+        <v>0.73</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>23.68</v>
+        <v>2.37</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>6.84</v>
+        <v>0.68</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.85</v>
+        <v>0.19</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>8.18</v>
+        <v>0.82</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>4.87</v>
+        <v>0.49</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>80.8</v>
+        <v>8.08</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>5.85</v>
+        <v>0.59</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>4.7</v>
+        <v>0.47</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>21.55</v>
+        <v>2.15</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41501.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>10.55</v>
+        <v>1.05</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>30.65</v>
+        <v>3.06</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>25.2</v>
+        <v>2.52</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>41.24</v>
+        <v>4.12</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>13.05</v>
+        <v>1.3</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>15.7</v>
+        <v>1.57</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>160.91</v>
+        <v>16.09</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>30.85</v>
+        <v>3.08</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>20.76</v>
+        <v>2.08</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>11.06</v>
+        <v>1.11</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>20.4</v>
+        <v>2.04</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>13.04</v>
+        <v>1.3</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>37.28</v>
+        <v>3.73</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_69.xlsx
+++ b/DATA_goal/Junction_Flooding_69.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="6" customWidth="1" min="32" max="32"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41501.34027777778</v>
+        <v>40751.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.64</v>
+        <v>0.92</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.46</v>
+        <v>2.06</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.15</v>
+        <v>1.49</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.66</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.82</v>
+        <v>1.16</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="R2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.84</v>
+        <v>10.7</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.54</v>
+        <v>2.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.52</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.23</v>
+        <v>1.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41501.34722222222</v>
+        <v>40751.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.33</v>
+        <v>0.74</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.77</v>
+        <v>0.54</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.12</v>
+        <v>1.67</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.19</v>
+        <v>1.27</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.79</v>
+        <v>0.54</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.73</v>
+        <v>2.25</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.84</v>
+        <v>0.93</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.4</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.91</v>
+        <v>0.53</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.07</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.19</v>
+        <v>0.7</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X3" s="4" t="n">
         <v>0.59</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S3" s="4" t="n">
+      <c r="Y3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>27.54</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>6.1</v>
+        <v>2.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.02</v>
+        <v>0.29</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.11</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41501.35416666666</v>
+        <v>40751.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.52</v>
+        <v>1.42</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.4</v>
+        <v>1.06</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.16</v>
+        <v>3.13</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.93</v>
+        <v>2.52</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.38</v>
+        <v>1.09</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.29</v>
+        <v>4.16</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.64</v>
+        <v>1.74</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.78</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.43</v>
+        <v>1.1</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.48</v>
+        <v>1.27</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.51</v>
+        <v>1.33</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.43</v>
+        <v>1.13</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.59</v>
+        <v>1.59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.97</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>5.8</v>
+        <v>16.43</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.23</v>
+        <v>3.15</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.39</v>
+        <v>1.04</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.8</v>
+        <v>2.09</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.46</v>
+        <v>1.11</v>
       </c>
       <c r="Y4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.12</v>
+        <v>3.79</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.47</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41501.36111111111</v>
+        <v>40751.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.96</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q5" s="4" t="n">
+      <c r="T5" s="4" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="V5" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.03</v>
-      </c>
       <c r="W5" s="4" t="n">
-        <v>2.09</v>
+        <v>1.89</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.87</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.76</v>
+        <v>3.66</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41501.36805555555</v>
+        <v>40751.36804398148</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1</v>
+        <v>17.66</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.76</v>
+        <v>13.22</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.02</v>
+        <v>1.01</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.2</v>
+        <v>38.67</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.8</v>
+        <v>31.54</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.77</v>
+        <v>13.67</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.27</v>
+        <v>53.39</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.22</v>
+        <v>21.48</v>
       </c>
       <c r="J6" s="4" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="K6" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.55</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>11.4</v>
+        <v>204.41</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.24</v>
+        <v>38.88</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.73</v>
+        <v>12.84</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.49</v>
+        <v>26.09</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>13.75</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.12</v>
+        <v>1.84</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.59</v>
+        <v>26.5</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.64</v>
+        <v>11.34</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.6</v>
+        <v>10.06</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.71</v>
+        <v>11.83</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.95</v>
+        <v>16.31</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.98</v>
+        <v>48.6</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.43</v>
+        <v>7.21</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41501.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41501.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41501.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41501.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41501.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>26.89</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>38.61</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>140.32</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>27.15</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>18.27</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>11.13</v>
+        <v>16.05</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_69.xlsx
+++ b/DATA_goal/Junction_Flooding_69.xlsx
@@ -454,7 +454,7 @@
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -467,13 +467,13 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>40751.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2</v>
+        <v>20.04</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.7</v>
+        <v>107.05</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.05</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.35</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.67</v>
+        <v>16.68</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.68</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.25</v>
+        <v>22.51</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.25</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.03</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.03</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.25</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.54</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>8.42</v>
+        <v>84.23</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.86</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.83</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.55</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.04</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.1</v>
+        <v>20.99</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.22</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.13</v>
+        <v>31.34</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.52</v>
+        <v>25.18</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.87</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.16</v>
+        <v>41.55</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.4</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.74</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.85</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.43</v>
+        <v>164.34</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.15</v>
+        <v>31.48</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.91</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.12</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.12</v>
+        <v>21.16</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.25</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.68</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.22</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.79</v>
+        <v>37.93</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.82</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.82</v>
+        <v>28.21</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.28</v>
+        <v>22.78</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.83</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4</v>
+        <v>40.01</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.66</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.04</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1</v>
+        <v>10.01</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.96</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.33</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.72</v>
+        <v>147.19</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.84</v>
+        <v>28.41</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.94</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1</v>
+        <v>10.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.99</v>
+        <v>19.9</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.69</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.9</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.66</v>
+        <v>36.59</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_69.xlsx
+++ b/DATA_goal/Junction_Flooding_69.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.17</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.53</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.85</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.58</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.86</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.62</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.04</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.57</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.74</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.5</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.82</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.99</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.07</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.2</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.05</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.66</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.86</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.39</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.91</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.79</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.63</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.05</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.62</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.42</v>
+        <v>7.424</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>5.43</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.35</v>
+        <v>1.352</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.68</v>
+        <v>16.683</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.68</v>
+        <v>12.676</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.42</v>
+        <v>5.419</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.51</v>
+        <v>22.512</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.25</v>
+        <v>9.253</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.03</v>
+        <v>4.035</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.26</v>
+        <v>5.259</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.9</v>
+        <v>6.898</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.03</v>
+        <v>7.026</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.23</v>
+        <v>2.226</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.02</v>
+        <v>6.015</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.25</v>
+        <v>8.247</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.54</v>
+        <v>5.536</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.07</v>
+        <v>1.069</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.41</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>84.23</v>
+        <v>84.232</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.86</v>
+        <v>16.859</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.55</v>
+        <v>5.552</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.83</v>
+        <v>10.825</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.89</v>
+        <v>5.893</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.894</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.06</v>
+        <v>12.061</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.9</v>
+        <v>4.904</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.55</v>
+        <v>4.552</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.31</v>
+        <v>5.308</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.04</v>
+        <v>7.041</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>20.99</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.94</v>
+        <v>2.943</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.94</v>
+        <v>6.942</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.22</v>
+        <v>14.224</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.6</v>
+        <v>10.599</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.19</v>
+        <v>1.185</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.34</v>
+        <v>31.342</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>25.18</v>
+        <v>25.177</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.87</v>
+        <v>10.867</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>41.55</v>
+        <v>41.554</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.4</v>
+        <v>17.401</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.77</v>
+        <v>7.773</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.02</v>
+        <v>11.025</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.74</v>
+        <v>12.737</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.28</v>
+        <v>13.276</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.85</v>
+        <v>3.852</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.86</v>
+        <v>15.863</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.74</v>
+        <v>9.736000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.516</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>164.34</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>31.48</v>
+        <v>31.479</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.91</v>
+        <v>20.914</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.12</v>
+        <v>11.116</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.53</v>
+        <v>1.526</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.16</v>
+        <v>21.162</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.25</v>
+        <v>8.246</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.68</v>
+        <v>9.677</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>13.22</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.671</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>37.93</v>
+        <v>37.927</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.77</v>
+        <v>5.771</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.02</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>11.71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.36804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.66</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>38.67</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>53.39</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.41</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.88</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.09</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.05</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_69.xlsx
+++ b/DATA_goal/Junction_Flooding_69.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -967,103 +967,207 @@
         <v>40751.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.82</v>
+        <v>12.825</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.57</v>
+        <v>9.574999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.953</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.21</v>
+        <v>28.213</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.78</v>
+        <v>22.782</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.83</v>
+        <v>9.827</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.01</v>
+        <v>40.007</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>15.66</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.04</v>
+        <v>7.043</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.01</v>
+        <v>10.011</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.96</v>
+        <v>11.959</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.45</v>
+        <v>3.452</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.33</v>
+        <v>14.326</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>8.712999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.637</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.19</v>
+        <v>147.187</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.41</v>
+        <v>28.414</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.94</v>
+        <v>18.938</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.01</v>
+        <v>10.011</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.36</v>
+        <v>1.358</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.9</v>
+        <v>19.903</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.4</v>
+        <v>7.401</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.69</v>
+        <v>8.689</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.9</v>
+        <v>11.901</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.59</v>
+        <v>36.595</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.21</v>
+        <v>5.211</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.71</v>
+        <v>11.715</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.36804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>53.39</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>204.41</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>38.88</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>16.05</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_69.xlsx
+++ b/DATA_goal/Junction_Flooding_69.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -967,207 +967,103 @@
         <v>40751.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.825</v>
+        <v>12.82</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.574999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.953</v>
+        <v>0.95</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.213</v>
+        <v>28.21</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.782</v>
+        <v>22.78</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.827</v>
+        <v>9.83</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.007</v>
+        <v>40.01</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>15.66</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.043</v>
+        <v>7.04</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.011</v>
+        <v>10.01</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.452</v>
+        <v>11.45</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.959</v>
+        <v>11.96</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.452</v>
+        <v>3.45</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.151</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.326</v>
+        <v>14.33</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.712999999999999</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.637</v>
+        <v>0.64</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.187</v>
+        <v>147.19</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.414</v>
+        <v>28.41</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.938</v>
+        <v>18.94</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.011</v>
+        <v>10.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.358</v>
+        <v>1.36</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.903</v>
+        <v>19.9</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.276</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.401</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.689</v>
+        <v>8.69</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.901</v>
+        <v>11.9</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.595</v>
+        <v>36.59</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.211</v>
+        <v>5.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.715</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.36804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.66</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>38.67</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>53.39</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.41</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.88</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.09</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.05</v>
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>
